--- a/CriaCarros/Default.xlsx
+++ b/CriaCarros/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Ski Rack, Tow kit</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Owners</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>RLX-H</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>cars/interior6.jpg</t>
   </si>
   <si>
+    <t>Acura</t>
+  </si>
+  <si>
     <t>inventory6.jpg</t>
   </si>
   <si>
@@ -117,6 +123,9 @@
   </si>
   <si>
     <t>Capital Ford</t>
+  </si>
+  <si>
+    <t>Audi</t>
   </si>
   <si>
     <t>Black</t>
@@ -335,11 +344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,14 +647,16 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -653,18 +664,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="18.2109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.41796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.41796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.41796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.62890625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.37109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.41796875" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.93359375" style="3" bestFit="1" customWidth="1"/>
@@ -672,148 +685,158 @@
     <col min="13" max="13" width="18.29296875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.78125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.1015625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.078125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.41796875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
+    <row r="1" ht="14.95" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>25000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="2">
+        <v>38000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="15.1">
-      <c r="A2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2">
-        <v>38000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
